--- a/dist/document/dest/2020/10/products/Fagendol.xlsx
+++ b/dist/document/dest/2020/10/products/Fagendol.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="69">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
@@ -19,7 +19,7 @@
     <t>BÁO CÁO TÌNH HÌNH MUA BÁN THUỐC FAGENDOL</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -37,6 +37,9 @@
     <t>SL</t>
   </si>
   <si>
+    <t>01/10 -&gt; 16/10/2020</t>
+  </si>
+  <si>
     <t>Lê Thị Thuý</t>
   </si>
   <si>
@@ -49,10 +52,13 @@
     <t>Anh</t>
   </si>
   <si>
-    <t>Lương Thanh</t>
-  </si>
-  <si>
-    <t>Bửu</t>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
   </si>
   <si>
     <t>Trần Thị</t>
@@ -61,27 +67,45 @@
     <t>Diễm</t>
   </si>
   <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>26/10/2020</t>
+  </si>
+  <si>
     <t>Huỳnh Đức Thục</t>
   </si>
   <si>
     <t>Đoan</t>
   </si>
   <si>
+    <t>Trần Minh</t>
+  </si>
+  <si>
+    <t>Đúng</t>
+  </si>
+  <si>
     <t>Nguyễn Thị Ánh</t>
   </si>
   <si>
     <t>Hồng</t>
   </si>
   <si>
-    <t>Nguyễn văn</t>
+    <t>22/10/2020</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>Trần Duy</t>
   </si>
   <si>
     <t>Hưng</t>
   </si>
   <si>
-    <t>Trần Duy</t>
-  </si>
-  <si>
     <t>Bùi Thị Vân</t>
   </si>
   <si>
@@ -124,16 +148,22 @@
     <t>Nhung</t>
   </si>
   <si>
+    <t>Lý Văn</t>
+  </si>
+  <si>
+    <t>Phái</t>
+  </si>
+  <si>
+    <t>Dương Phi</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
     <t>Phạm Võ Minh</t>
   </si>
   <si>
     <t>Thắng</t>
-  </si>
-  <si>
-    <t>Võ Trọng</t>
-  </si>
-  <si>
-    <t>Thịnh</t>
   </si>
   <si>
     <t>Nguyễn Linh</t>
@@ -630,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E112"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -690,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10">
-        <v>300</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -710,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="10">
-        <v>980</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -724,16 +754,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" s="10">
-        <v>15</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -741,16 +771,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="10">
-        <v>420</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -758,16 +788,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E10" s="10">
-        <v>252</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -775,16 +805,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="10">
-        <v>2840</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -795,13 +825,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" s="10">
-        <v>166</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -809,16 +839,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13" s="10">
-        <v>304</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -826,16 +856,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E14" s="10">
-        <v>2837</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -843,16 +873,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E15" s="10">
-        <v>392</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -860,16 +890,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E16" s="10">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -877,16 +907,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E17" s="10">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -894,16 +924,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E18" s="10">
-        <v>1335</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -911,16 +941,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E19" s="10">
-        <v>320</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -928,16 +958,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E20" s="10">
-        <v>1295</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -945,16 +975,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E21" s="10">
-        <v>176</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -962,13 +992,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E22" s="10">
         <v>60</v>
@@ -979,16 +1009,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E23" s="10">
-        <v>13787</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -996,16 +1026,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E24" s="10">
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1013,16 +1043,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E25" s="10">
-        <v>200</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1030,16 +1060,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E26" s="10">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1047,16 +1077,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E27" s="10">
-        <v>786</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1067,13 +1097,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E28" s="10">
-        <v>555</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1084,13 +1114,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E29" s="10">
-        <v>270</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1098,43 +1128,1386 @@
         <v>25</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="10">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="10">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="10">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>45</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>47</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>48</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>49</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>50</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>51</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>52</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>53</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>54</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>55</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="B60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
         <v>56</v>
       </c>
-      <c r="E30" s="10">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="10">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
         <v>57</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="11">
-        <v>30360</v>
-      </c>
-    </row>
-    <row r="32" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="B62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
         <v>58</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
+      <c r="B63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>59</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>60</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>61</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>62</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>63</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>64</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>65</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>66</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>67</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>68</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>69</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>70</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75" s="10">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>71</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>72</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="10">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="78" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>73</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="10">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="79" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>74</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="10">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="80" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>75</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>76</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="10">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="82" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>77</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="10">
+        <v>9829</v>
+      </c>
+    </row>
+    <row r="83" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>78</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83" s="10">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="84" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>79</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="10">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="85" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>80</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="10">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="86" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>81</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" s="10">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="87" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>82</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>83</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>84</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>85</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>86</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" s="10">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="92" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>87</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>88</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E93" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>89</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E94" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>90</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>91</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" s="10">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="97" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>92</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E97" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>93</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>94</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E99" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>95</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>96</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="102" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>97</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>98</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E103" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>99</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>100</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E105" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>101</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E106" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>102</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" s="10">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="108" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>103</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E108" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>104</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E109" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="11">
+        <v>32804</v>
+      </c>
+    </row>
+    <row r="111" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A110:D110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
